--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/65_Rize_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/65_Rize_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F32D8E-C4C2-4097-9707-29195FCEFBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD51E3B-1CBB-4904-9106-07BA999E6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{4ED34E4E-C649-4C4D-9829-08A45610B1EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{58438722-D62B-453E-9CAB-AF38826A9B52}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -936,13 +936,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C77838BB-496C-44AC-976B-0A034D3B0875}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CF7C79F0-8AF4-454D-8726-C9621D826186}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{04B9CAB2-DC4C-43BF-AF1F-E16161CE5740}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{98AD57DB-E384-432F-8033-96A550397DCE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E8200F27-7F17-41EF-9EFA-16794C940631}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{EE30E690-A82C-491B-B04D-2EB4342CBBDC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{36A710ED-49A6-43C8-908C-668B1BF36602}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{535D27C2-20FD-4890-BB52-18CD89A1785E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{45760835-04E5-42C7-9D18-147DD3C83EFA}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{65ABB0AF-8072-4E01-A03B-E97BC5E51F8A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{91AEE50A-9CC9-4013-826B-E7C252A6D38F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8E414A64-AEE9-415C-87F8-18D2BFAB8633}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{AB4ACF89-B1BE-466B-A5EF-EFE410B87E37}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{85FDD056-0A68-4F89-80E5-7C418F23E075}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9070122-A821-49AC-B7FC-4B64AE5C7BE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8271108-7C62-4320-BF0F-DF5BB8194414}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7FBF1C-F940-4AEF-BBF2-CC4A52328E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FE56FE-0813-4610-A05C-69877A9A2406}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3833,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6911611D-4074-485A-B66F-D25236E6F078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E7D9D0-863D-4CA3-989A-16733175B92E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5074,7 +5074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2FEBCC-E108-4F21-9732-479C426C6AA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6526F622-E8A1-4F06-AC1F-419E6FFAF3AE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6311,7 +6311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAD97DA-750C-4308-94FF-7DCBF24F8D8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408251E-6E32-4852-9059-F2A89D00D66F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7588,7 +7588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBEE911-CC4F-4724-9D13-80AED6F6D4FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF35E55-1B5E-4AAA-B339-7BB657B69C56}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8865,7 +8865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1BD439-57AF-4160-9266-0B052A53E7FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFEC2D0-EDEB-4271-8FC4-A969D0E8D788}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10142,7 +10142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F78C80-08F8-40BC-A191-F34A5F73F3D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AA8B8-1E60-434D-B126-2E728416D4A4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11419,7 +11419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7616B3-84DD-47F4-9475-120696E5B736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCA4533-6BDB-40BF-AA21-632752455263}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12696,7 +12696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B689571E-8563-4275-BFDE-F6E577E5EBD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E94F4B2-E5E3-4C2B-ABA3-CC1459D2D0D2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13957,7 +13957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416128A2-F72E-44A5-85F5-9FA42F2F504F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DEB268-AE1A-484E-AE3C-886896F75B0A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15218,7 +15218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978ECEAB-DB2E-4444-8B9F-E64DEC06CF95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53549E87-3BAD-4E7C-B378-21C1FDB843A8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
